--- a/exercises/ex090.self_flow_well.xlsx
+++ b/exercises/ex090.self_flow_well.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E65D9-4B67-44C6-A2E7-8FDA64E58E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD2E49-72A8-4FE4-9D15-6036A1A50BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="self_flow_well" sheetId="108" r:id="rId1"/>
@@ -60,7 +60,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1036,7 +1038,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1094,64 +1096,64 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.919082974207917</c:v>
+                  <c:v>27.641551705013466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.118463156250751</c:v>
+                  <c:v>35.778500990059364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.584405899554511</c:v>
+                  <c:v>43.905471253829596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.300757654794388</c:v>
+                  <c:v>52.021745445285916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.249912841712224</c:v>
+                  <c:v>60.127289652798495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.413569804466761</c:v>
+                  <c:v>68.222107366090199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.773504295733495</c:v>
+                  <c:v>76.306211605588203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.311794844606624</c:v>
+                  <c:v>84.379618277702349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.011080129314465</c:v>
+                  <c:v>92.442344426709496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.854935735706931</c:v>
+                  <c:v>100.49440772851936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.828029104132668</c:v>
+                  <c:v>108.53582632649056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81.916203049332694</c:v>
+                  <c:v>116.56661876884763</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.106503443920431</c:v>
+                  <c:v>124.58680397857327</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.387168869531934</c:v>
+                  <c:v>132.59640123452351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.8172836039513</c:v>
+                  <c:v>140.5954301568085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107.43416332544071</c:v>
+                  <c:v>148.58391069401802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.22659226990068</c:v>
+                  <c:v>156.56186311139777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.18149417023243</c:v>
+                  <c:v>164.5293079796225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.2890744619144</c:v>
+                  <c:v>172.48626616401603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>135.53993957236688</c:v>
+                  <c:v>180.43275881414652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,64 +1282,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19.757708706382058</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.656415294182356</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.835985903200218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.282890558072431</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.981120808102538</c:v>
+                  <c:v>8.43914189088526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.913167280819408</c:v>
+                  <c:v>16.544285398112859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.060785671512278</c:v>
+                  <c:v>24.638377723082304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.405768811071766</c:v>
+                  <c:v>32.721047418549077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.930191359304658</c:v>
+                  <c:v>40.791666178311438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.616664081525528</c:v>
+                  <c:v>48.850495914859671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.448718690165251</c:v>
+                  <c:v>56.899337901324508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.410967757019719</c:v>
+                  <c:v>64.932950764456038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81.489192401372563</c:v>
+                  <c:v>72.94026559052881</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.670373323544482</c:v>
+                  <c:v>80.913396506422103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.942807410468035</c:v>
+                  <c:v>88.846148144745797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.35539446609654</c:v>
+                  <c:v>96.732534757210885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.95529068281218</c:v>
+                  <c:v>104.56812891434407</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>113.73146318346359</c:v>
+                  <c:v>112.35213979383975</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120.67086657755249</c:v>
+                  <c:v>120.07893151964927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>127.76351147587658</c:v>
+                  <c:v>127.58775251238023</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>135</c:v>
@@ -1512,7 +1514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1550,7 +1552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214621504"/>
@@ -1634,7 +1636,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1672,7 +1674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214620928"/>
@@ -1714,7 +1716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1744,7 +1746,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2071,67 +2073,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>184.97607066819606</c:v>
+                  <c:v>183.82696494225493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.90001376294441</c:v>
+                  <c:v>183.82575911292008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.99282755930145</c:v>
+                  <c:v>183.79888466857011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182.45803343372071</c:v>
+                  <c:v>183.76842571046598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.35722204391749</c:v>
+                  <c:v>183.74578912452796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.58482188091909</c:v>
+                  <c:v>183.72518705894822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.99857821234244</c:v>
+                  <c:v>183.70488862536126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.35794645683725</c:v>
+                  <c:v>183.68459524696584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>163.36838967455799</c:v>
+                  <c:v>183.66399656533156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158.16965799075862</c:v>
+                  <c:v>183.68410588389429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>155.51304568368496</c:v>
+                  <c:v>183.72075347738701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.10438011596673</c:v>
+                  <c:v>183.76419224901645</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>154.86187842249763</c:v>
+                  <c:v>183.81153940657796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154.7373579907518</c:v>
+                  <c:v>183.86272338719701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>154.59052121144407</c:v>
+                  <c:v>183.91841510758206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154.47076437676736</c:v>
+                  <c:v>183.97726111945491</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>154.38812058802171</c:v>
+                  <c:v>184.03981225921771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>154.33678237328689</c:v>
+                  <c:v>184.1060456763324</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154.31522200860661</c:v>
+                  <c:v>184.17591500211014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>154.32421893826313</c:v>
+                  <c:v>184.24940456307044</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.35983303230893</c:v>
+                  <c:v>184.32649352254629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,67 +2230,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>190.92822309587905</c:v>
+                  <c:v>190.05476179582706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.93807955347597</c:v>
+                  <c:v>190.0590004742551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.30820916794369</c:v>
+                  <c:v>190.04777306576099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.10251225862541</c:v>
+                  <c:v>190.02492985139781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.39707499156032</c:v>
+                  <c:v>190.00299316593126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185.1304527275646</c:v>
+                  <c:v>189.98467189107939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182.22164836052391</c:v>
+                  <c:v>189.96849410940723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178.50501718149664</c:v>
+                  <c:v>189.95199886435435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>173.7479109707138</c:v>
+                  <c:v>189.93504912087985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168.74574034888983</c:v>
+                  <c:v>189.94345621453493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.72003906347317</c:v>
+                  <c:v>189.97679840820194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165.08089334585699</c:v>
+                  <c:v>190.02119083847609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164.87384712940374</c:v>
+                  <c:v>190.06953635488779</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164.71006755958757</c:v>
+                  <c:v>190.12228966284087</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164.55243579425425</c:v>
+                  <c:v>190.17844054186011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164.43163645792217</c:v>
+                  <c:v>190.23836023591602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>164.34051194093001</c:v>
+                  <c:v>190.30201269724529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164.27717217440579</c:v>
+                  <c:v>190.36934715465185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>164.24058567100769</c:v>
+                  <c:v>190.44033831121516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>164.23406155092698</c:v>
+                  <c:v>190.51495892016041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>164.24954464910897</c:v>
+                  <c:v>190.59318527596071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215291520"/>
@@ -2512,7 +2514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215290944"/>
@@ -2557,7 +2559,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2717,67 +2719,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>184.21420243843244</c:v>
+                  <c:v>187.96418465658164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.82521369860973</c:v>
+                  <c:v>181.56289597711742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.80115654052625</c:v>
+                  <c:v>166.24965141503034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.26240753233965</c:v>
+                  <c:v>141.70737354553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.4833270532916</c:v>
+                  <c:v>127.67240855792032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.06635350642635</c:v>
+                  <c:v>117.54323774578329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.029211946906671</c:v>
+                  <c:v>109.81779765651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.751772266773244</c:v>
+                  <c:v>103.95931584853476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.75456564622597</c:v>
+                  <c:v>99.555988806312328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.696731417198876</c:v>
+                  <c:v>96.289264084211055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.341228804524491</c:v>
+                  <c:v>93.91360754180505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.443326310028922</c:v>
+                  <c:v>92.223461817671193</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.952114642885093</c:v>
+                  <c:v>91.104134281124914</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.815194600072729</c:v>
+                  <c:v>90.312731994889404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>86.995916486152595</c:v>
+                  <c:v>89.946643133187209</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.369565688907599</c:v>
+                  <c:v>89.846478185284781</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.967454329706271</c:v>
+                  <c:v>90.045128214445413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.720608891785147</c:v>
+                  <c:v>90.448810064688956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.593314734729319</c:v>
+                  <c:v>91.008321965563326</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.580408493650125</c:v>
+                  <c:v>91.778673422793716</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.705815274676112</c:v>
+                  <c:v>92.617707485007671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,67 +2873,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>190.3487111484429</c:v>
+                  <c:v>193.51523490937487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.94726725764181</c:v>
+                  <c:v>188.36153096782891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.6293733279725</c:v>
+                  <c:v>174.92582799049038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.82610512243622</c:v>
+                  <c:v>152.19508525869674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124.64947226717112</c:v>
+                  <c:v>138.22443558520956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.73089748277749</c:v>
+                  <c:v>128.41768374338312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.72146201460308</c:v>
+                  <c:v>120.48122442259256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.2902214926431</c:v>
+                  <c:v>114.0635994242527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.123044629786961</c:v>
+                  <c:v>108.89088667112728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.947937958411956</c:v>
+                  <c:v>104.74126318511236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.548197427109898</c:v>
+                  <c:v>101.43356177863626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.758141927655473</c:v>
+                  <c:v>98.819803823659541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.452741308222386</c:v>
+                  <c:v>96.779422077523648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.485037774032818</c:v>
+                  <c:v>95.214392721399562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88.806710936911287</c:v>
+                  <c:v>94.027320397792167</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.415535600028718</c:v>
+                  <c:v>93.146698362938508</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88.213657273326874</c:v>
+                  <c:v>92.48974557965046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.249149866864357</c:v>
+                  <c:v>92.094844690045591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>88.445822832013121</c:v>
+                  <c:v>91.910242263428344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.816204897834425</c:v>
+                  <c:v>91.885625469890087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.276338095335021</c:v>
+                  <c:v>92.098874249692727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40058880"/>
@@ -3155,7 +3157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251762880"/>
@@ -3196,7 +3198,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4715,25 +4717,25 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4742,23 +4744,23 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
         <v>36</v>
@@ -4775,7 +4777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
@@ -4879,7 +4881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>43</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>54</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>65</v>
       </c>
@@ -4912,23 +4914,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>55</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>56</v>
       </c>
@@ -4954,7 +4956,7 @@
       </c>
       <c r="G21" s="11" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -4976,7 +4978,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
@@ -4991,7 +4993,7 @@
       </c>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>63</v>
       </c>
@@ -5001,9 +5003,9 @@
       <c r="D23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="31" t="str">
-        <f>[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
-        <v>h_perf_m:2000,00000;h_pump_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:0,00000;roughness_m:0,00010;t_bh_C:80,00000;t_wh_C:20,00000;</v>
+      <c r="G23" s="31" t="e">
+        <f ca="1">[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -5021,7 +5023,7 @@
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
     </row>
-    <row r="24" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>57</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>58</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>59</v>
       </c>
@@ -5054,7 +5056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
         <v>60</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
         <v>71</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
         <v>61</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
         <v>68</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>69</v>
       </c>
@@ -5111,12 +5113,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>44</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>45</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>46</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -5159,8 +5161,8 @@
       </c>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -5168,7 +5170,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
         <v>47</v>
       </c>
@@ -5179,29 +5181,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:10" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="24" t="s">
         <v>10</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
         <v>0</v>
       </c>
@@ -5232,10 +5234,10 @@
       <c r="H49" s="6"/>
       <c r="J49" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C49,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D49)</f>
-        <v>19.757708706382058</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
         <f t="shared" ref="C50:C69" si="1">C49+Hmes_/N_</f>
         <v>100</v>
@@ -5246,14 +5248,14 @@
       </c>
       <c r="E50" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D50)</f>
-        <v>23.919082974207917</v>
+        <v>27.641551705013466</v>
       </c>
       <c r="J50" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C50,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D50)</f>
-        <v>23.656415294182356</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -5264,14 +5266,14 @@
       </c>
       <c r="E51" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D51)</f>
-        <v>28.118463156250751</v>
+        <v>35.778500990059364</v>
       </c>
       <c r="J51" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C51,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D51)</f>
-        <v>27.835985903200218</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -5282,14 +5284,14 @@
       </c>
       <c r="E52" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D52)</f>
-        <v>32.584405899554511</v>
+        <v>43.905471253829596</v>
       </c>
       <c r="J52" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C52,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D52)</f>
-        <v>32.282890558072431</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
         <f t="shared" si="1"/>
         <v>400</v>
@@ -5300,14 +5302,14 @@
       </c>
       <c r="E53" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D53)</f>
-        <v>37.300757654794388</v>
+        <v>52.021745445285916</v>
       </c>
       <c r="J53" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C53,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D53)</f>
-        <v>36.981120808102538</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>8.43914189088526</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
         <f t="shared" si="1"/>
         <v>500</v>
@@ -5318,15 +5320,15 @@
       </c>
       <c r="E54" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D54)</f>
-        <v>42.249912841712224</v>
+        <v>60.127289652798495</v>
       </c>
       <c r="G54" s="30"/>
       <c r="J54" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C54,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D54)</f>
-        <v>41.913167280819408</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>16.544285398112859</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -5337,14 +5339,14 @@
       </c>
       <c r="E55" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D55)</f>
-        <v>47.413569804466761</v>
+        <v>68.222107366090199</v>
       </c>
       <c r="J55" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C55,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D55)</f>
-        <v>47.060785671512278</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>24.638377723082304</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
         <f t="shared" si="1"/>
         <v>700</v>
@@ -5355,14 +5357,14 @@
       </c>
       <c r="E56" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D56)</f>
-        <v>52.773504295733495</v>
+        <v>76.306211605588203</v>
       </c>
       <c r="J56" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C56,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D56)</f>
-        <v>52.405768811071766</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>32.721047418549077</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
         <f t="shared" si="1"/>
         <v>800</v>
@@ -5373,14 +5375,14 @@
       </c>
       <c r="E57" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D57)</f>
-        <v>58.311794844606624</v>
+        <v>84.379618277702349</v>
       </c>
       <c r="J57" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C57,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D57)</f>
-        <v>57.930191359304658</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>40.791666178311438</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
@@ -5391,14 +5393,14 @@
       </c>
       <c r="E58" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D58)</f>
-        <v>64.011080129314465</v>
+        <v>92.442344426709496</v>
       </c>
       <c r="J58" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C58,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D58)</f>
-        <v>63.616664081525528</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>48.850495914859671</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -5409,14 +5411,14 @@
       </c>
       <c r="E59" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D59)</f>
-        <v>69.854935735706931</v>
+        <v>100.49440772851936</v>
       </c>
       <c r="J59" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C59,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D59)</f>
-        <v>69.448718690165251</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>56.899337901324508</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
         <f t="shared" si="1"/>
         <v>1100</v>
@@ -5427,14 +5429,14 @@
       </c>
       <c r="E60" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D60)</f>
-        <v>75.828029104132668</v>
+        <v>108.53582632649056</v>
       </c>
       <c r="J60" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C60,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D60)</f>
-        <v>75.410967757019719</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>64.932950764456038</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -5445,14 +5447,14 @@
       </c>
       <c r="E61" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D61)</f>
-        <v>81.916203049332694</v>
+        <v>116.56661876884763</v>
       </c>
       <c r="J61" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C61,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D61)</f>
-        <v>81.489192401372563</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>72.94026559052881</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <f t="shared" si="1"/>
         <v>1300</v>
@@ -5463,14 +5465,14 @@
       </c>
       <c r="E62" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D62)</f>
-        <v>88.106503443920431</v>
+        <v>124.58680397857327</v>
       </c>
       <c r="J62" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C62,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D62)</f>
-        <v>87.670373323544482</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>80.913396506422103</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <f t="shared" si="1"/>
         <v>1400</v>
@@ -5481,14 +5483,14 @@
       </c>
       <c r="E63" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D63)</f>
-        <v>94.387168869531934</v>
+        <v>132.59640123452351</v>
       </c>
       <c r="J63" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C63,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D63)</f>
-        <v>93.942807410468035</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>88.846148144745797</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -5499,14 +5501,14 @@
       </c>
       <c r="E64" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D64)</f>
-        <v>100.8172836039513</v>
+        <v>140.5954301568085</v>
       </c>
       <c r="J64" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C64,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D64)</f>
-        <v>100.35539446609654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>96.732534757210885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <f t="shared" si="1"/>
         <v>1600</v>
@@ -5517,14 +5519,14 @@
       </c>
       <c r="E65" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D65)</f>
-        <v>107.43416332544071</v>
+        <v>148.58391069401802</v>
       </c>
       <c r="J65" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C65,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D65)</f>
-        <v>106.95529068281218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>104.56812891434407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -5535,14 +5537,14 @@
       </c>
       <c r="E66" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D66)</f>
-        <v>114.22659226990068</v>
+        <v>156.56186311139777</v>
       </c>
       <c r="J66" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C66,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D66)</f>
-        <v>113.73146318346359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>112.35213979383975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
@@ -5553,14 +5555,14 @@
       </c>
       <c r="E67" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D67)</f>
-        <v>121.18149417023243</v>
+        <v>164.5293079796225</v>
       </c>
       <c r="J67" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C67,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D67)</f>
-        <v>120.67086657755249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>120.07893151964927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
         <f t="shared" si="1"/>
         <v>1900</v>
@@ -5571,14 +5573,14 @@
       </c>
       <c r="E68" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D68)</f>
-        <v>128.2890744619144</v>
+        <v>172.48626616401603</v>
       </c>
       <c r="J68" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C68,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D68)</f>
-        <v>127.76351147587658</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>127.58775251238023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -5589,26 +5591,26 @@
       </c>
       <c r="E69" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C69-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D69)</f>
-        <v>135.53993957236688</v>
+        <v>180.43275881414652</v>
       </c>
       <c r="J69" s="27">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="30"/>
     </row>
-    <row r="73" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -5619,13 +5621,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="26">
         <f>E69</f>
-        <v>135.53993957236688</v>
+        <v>180.43275881414652</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>1</v>
@@ -5634,12 +5636,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H76" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -5657,7 +5659,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>28</v>
       </c>
@@ -5676,14 +5678,14 @@
       </c>
       <c r="G78" s="29">
         <f>[1]!well_pwf_plin_atma(E78,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>184.97607066819606</v>
+        <v>183.82696494225493</v>
       </c>
       <c r="H78" s="29">
         <f>[1]!well_pwf_plin_atma(E78,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>190.92822309587905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>190.05476179582706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E79" s="27">
         <f t="shared" ref="E79:E98" si="2">E78+Qmax_/N_</f>
         <v>6.5</v>
@@ -5694,14 +5696,14 @@
       </c>
       <c r="G79" s="29">
         <f>[1]!well_pwf_plin_atma(E79,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>184.90001376294441</v>
+        <v>183.82575911292008</v>
       </c>
       <c r="H79" s="29">
         <f>[1]!well_pwf_plin_atma(E79,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>190.93807955347597</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>190.0590004742551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E80" s="27">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5712,14 +5714,14 @@
       </c>
       <c r="G80" s="29">
         <f>[1]!well_pwf_plin_atma(E80,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>183.99282755930145</v>
+        <v>183.79888466857011</v>
       </c>
       <c r="H80" s="29">
         <f>[1]!well_pwf_plin_atma(E80,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>190.30820916794369</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.04777306576099</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E81" s="27">
         <f t="shared" si="2"/>
         <v>17.5</v>
@@ -5730,14 +5732,14 @@
       </c>
       <c r="G81" s="29">
         <f>[1]!well_pwf_plin_atma(E81,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>182.45803343372071</v>
+        <v>183.76842571046598</v>
       </c>
       <c r="H81" s="29">
         <f>[1]!well_pwf_plin_atma(E81,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>189.10251225862541</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.02492985139781</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E82" s="27">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5748,14 +5750,14 @@
       </c>
       <c r="G82" s="29">
         <f>[1]!well_pwf_plin_atma(E82,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>180.35722204391749</v>
+        <v>183.74578912452796</v>
       </c>
       <c r="H82" s="29">
         <f>[1]!well_pwf_plin_atma(E82,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>187.39707499156032</v>
-      </c>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.00299316593126</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E83" s="27">
         <f t="shared" si="2"/>
         <v>28.5</v>
@@ -5766,14 +5768,14 @@
       </c>
       <c r="G83" s="29">
         <f>[1]!well_pwf_plin_atma(E83,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>177.58482188091909</v>
+        <v>183.72518705894822</v>
       </c>
       <c r="H83" s="29">
         <f>[1]!well_pwf_plin_atma(E83,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>185.1304527275646</v>
-      </c>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.98467189107939</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E84" s="27">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5784,14 +5786,14 @@
       </c>
       <c r="G84" s="29">
         <f>[1]!well_pwf_plin_atma(E84,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>173.99857821234244</v>
+        <v>183.70488862536126</v>
       </c>
       <c r="H84" s="29">
         <f>[1]!well_pwf_plin_atma(E84,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>182.22164836052391</v>
-      </c>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.96849410940723</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E85" s="27">
         <f t="shared" si="2"/>
         <v>39.5</v>
@@ -5802,14 +5804,14 @@
       </c>
       <c r="G85" s="29">
         <f>[1]!well_pwf_plin_atma(E85,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>169.35794645683725</v>
+        <v>183.68459524696584</v>
       </c>
       <c r="H85" s="29">
         <f>[1]!well_pwf_plin_atma(E85,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>178.50501718149664</v>
-      </c>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.95199886435435</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E86" s="27">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5820,14 +5822,14 @@
       </c>
       <c r="G86" s="29">
         <f>[1]!well_pwf_plin_atma(E86,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>163.36838967455799</v>
+        <v>183.66399656533156</v>
       </c>
       <c r="H86" s="29">
         <f>[1]!well_pwf_plin_atma(E86,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>173.7479109707138</v>
-      </c>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.93504912087985</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E87" s="27">
         <f t="shared" si="2"/>
         <v>50.5</v>
@@ -5838,14 +5840,14 @@
       </c>
       <c r="G87" s="29">
         <f>[1]!well_pwf_plin_atma(E87,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>158.16965799075862</v>
+        <v>183.68410588389429</v>
       </c>
       <c r="H87" s="29">
         <f>[1]!well_pwf_plin_atma(E87,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>168.74574034888983</v>
-      </c>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.94345621453493</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E88" s="27">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5856,14 +5858,14 @@
       </c>
       <c r="G88" s="29">
         <f>[1]!well_pwf_plin_atma(E88,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>155.51304568368496</v>
+        <v>183.72075347738701</v>
       </c>
       <c r="H88" s="29">
         <f>[1]!well_pwf_plin_atma(E88,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>165.72003906347317</v>
-      </c>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.35">
+        <v>189.97679840820194</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E89" s="27">
         <f t="shared" si="2"/>
         <v>61.5</v>
@@ -5874,14 +5876,14 @@
       </c>
       <c r="G89" s="29">
         <f>[1]!well_pwf_plin_atma(E89,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>155.10438011596673</v>
+        <v>183.76419224901645</v>
       </c>
       <c r="H89" s="29">
         <f>[1]!well_pwf_plin_atma(E89,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>165.08089334585699</v>
-      </c>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.02119083847609</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E90" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5892,14 +5894,14 @@
       </c>
       <c r="G90" s="29">
         <f>[1]!well_pwf_plin_atma(E90,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.86187842249763</v>
+        <v>183.81153940657796</v>
       </c>
       <c r="H90" s="29">
         <f>[1]!well_pwf_plin_atma(E90,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.87384712940374</v>
-      </c>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.06953635488779</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E91" s="27">
         <f t="shared" si="2"/>
         <v>72.5</v>
@@ -5910,14 +5912,14 @@
       </c>
       <c r="G91" s="29">
         <f>[1]!well_pwf_plin_atma(E91,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.7373579907518</v>
+        <v>183.86272338719701</v>
       </c>
       <c r="H91" s="29">
         <f>[1]!well_pwf_plin_atma(E91,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.71006755958757</v>
-      </c>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.12228966284087</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E92" s="27">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -5928,14 +5930,14 @@
       </c>
       <c r="G92" s="29">
         <f>[1]!well_pwf_plin_atma(E92,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.59052121144407</v>
+        <v>183.91841510758206</v>
       </c>
       <c r="H92" s="29">
         <f>[1]!well_pwf_plin_atma(E92,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.55243579425425</v>
-      </c>
-    </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.17844054186011</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E93" s="27">
         <f t="shared" si="2"/>
         <v>83.5</v>
@@ -5946,14 +5948,14 @@
       </c>
       <c r="G93" s="29">
         <f>[1]!well_pwf_plin_atma(E93,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.47076437676736</v>
+        <v>183.97726111945491</v>
       </c>
       <c r="H93" s="29">
         <f>[1]!well_pwf_plin_atma(E93,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.43163645792217</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.23836023591602</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E94" s="27">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -5964,14 +5966,14 @@
       </c>
       <c r="G94" s="29">
         <f>[1]!well_pwf_plin_atma(E94,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.38812058802171</v>
+        <v>184.03981225921771</v>
       </c>
       <c r="H94" s="29">
         <f>[1]!well_pwf_plin_atma(E94,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.34051194093001</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.30201269724529</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E95" s="27">
         <f t="shared" si="2"/>
         <v>94.5</v>
@@ -5982,14 +5984,14 @@
       </c>
       <c r="G95" s="29">
         <f>[1]!well_pwf_plin_atma(E95,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.33678237328689</v>
+        <v>184.1060456763324</v>
       </c>
       <c r="H95" s="29">
         <f>[1]!well_pwf_plin_atma(E95,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.27717217440579</v>
-      </c>
-    </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.35">
+        <v>190.36934715465185</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E96" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6000,14 +6002,14 @@
       </c>
       <c r="G96" s="29">
         <f>[1]!well_pwf_plin_atma(E96,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.31522200860661</v>
+        <v>184.17591500211014</v>
       </c>
       <c r="H96" s="29">
         <f>[1]!well_pwf_plin_atma(E96,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.24058567100769</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+        <v>190.44033831121516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E97" s="27">
         <f t="shared" si="2"/>
         <v>105.5</v>
@@ -6018,14 +6020,14 @@
       </c>
       <c r="G97" s="29">
         <f>[1]!well_pwf_plin_atma(E97,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.32421893826313</v>
+        <v>184.24940456307044</v>
       </c>
       <c r="H97" s="29">
         <f>[1]!well_pwf_plin_atma(E97,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.23406155092698</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+        <v>190.51495892016041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E98" s="27">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6036,51 +6038,51 @@
       </c>
       <c r="G98" s="29">
         <f>[1]!well_pwf_plin_atma(E98,fw_,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.35983303230893</v>
+        <v>184.32649352254629</v>
       </c>
       <c r="H98" s="29">
         <f>[1]!well_pwf_plin_atma(E98,fw_2,Pbuf_,Hmes_,Pcas_,,PVRstr1_,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>164.24954464910897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+        <v>190.59318527596071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>74</v>
       </c>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="I105" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C106" s="6"/>
       <c r="I106" s="28">
         <f>fw_2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C107" s="6"/>
       <c r="F107" s="15" t="s">
         <v>32</v>
@@ -6095,43 +6097,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C108" s="6"/>
       <c r="F108" s="28">
         <v>10</v>
       </c>
       <c r="G108" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H108" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G108,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>184.21420243843244</v>
+        <v>187.96418465658164</v>
       </c>
       <c r="I108" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G108,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>190.3487111484429</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>193.51523490937487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C109" s="6"/>
       <c r="F109" s="28">
         <v>50</v>
       </c>
       <c r="G109" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H109" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G109,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>161.82521369860973</v>
+        <v>181.56289597711742</v>
       </c>
       <c r="I109" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G109,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>170.94726725764181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+        <v>188.36153096782891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C110" s="6"/>
       <c r="F110" s="28">
         <f>F109+50</f>
@@ -6139,18 +6141,18 @@
       </c>
       <c r="G110" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H110" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G110,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>143.80115654052625</v>
+        <v>166.24965141503034</v>
       </c>
       <c r="I110" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G110,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>154.6293733279725</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+        <v>174.92582799049038</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C111" s="6"/>
       <c r="F111" s="28">
         <f t="shared" ref="F111:F128" si="3">F110+50</f>
@@ -6158,18 +6160,18 @@
       </c>
       <c r="G111" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H111" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G111,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>125.26240753233965</v>
+        <v>141.70737354553</v>
       </c>
       <c r="I111" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G111,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>136.82610512243622</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>152.19508525869674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C112" s="6"/>
       <c r="F112" s="28">
         <f t="shared" si="3"/>
@@ -6177,18 +6179,18 @@
       </c>
       <c r="G112" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H112" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G112,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>113.4833270532916</v>
+        <v>127.67240855792032</v>
       </c>
       <c r="I112" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G112,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>124.64947226717112</v>
-      </c>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.35">
+        <v>138.22443558520956</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="6"/>
       <c r="F113" s="28">
         <f t="shared" si="3"/>
@@ -6196,18 +6198,18 @@
       </c>
       <c r="G113" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H113" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G113,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>105.06635350642635</v>
+        <v>117.54323774578329</v>
       </c>
       <c r="I113" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G113,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>115.73089748277749</v>
-      </c>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.35">
+        <v>128.41768374338312</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C114" s="6"/>
       <c r="F114" s="28">
         <f t="shared" si="3"/>
@@ -6215,18 +6217,18 @@
       </c>
       <c r="G114" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H114" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G114,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>99.029211946906671</v>
+        <v>109.81779765651</v>
       </c>
       <c r="I114" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G114,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>108.72146201460308</v>
-      </c>
-    </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.35">
+        <v>120.48122442259256</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="6"/>
       <c r="F115" s="28">
         <f t="shared" si="3"/>
@@ -6234,18 +6236,18 @@
       </c>
       <c r="G115" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H115" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G115,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>94.751772266773244</v>
+        <v>103.95931584853476</v>
       </c>
       <c r="I115" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G115,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>103.2902214926431</v>
-      </c>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.35">
+        <v>114.0635994242527</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C116" s="6"/>
       <c r="F116" s="28">
         <f t="shared" si="3"/>
@@ -6253,18 +6255,18 @@
       </c>
       <c r="G116" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H116" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G116,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>91.75456564622597</v>
+        <v>99.555988806312328</v>
       </c>
       <c r="I116" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G116,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>99.123044629786961</v>
-      </c>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.35">
+        <v>108.89088667112728</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C117" s="6"/>
       <c r="F117" s="28">
         <f t="shared" si="3"/>
@@ -6272,18 +6274,18 @@
       </c>
       <c r="G117" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H117" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G117,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>89.696731417198876</v>
+        <v>96.289264084211055</v>
       </c>
       <c r="I117" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G117,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>95.947937958411956</v>
-      </c>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.35">
+        <v>104.74126318511236</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C118" s="6"/>
       <c r="F118" s="28">
         <f t="shared" si="3"/>
@@ -6291,18 +6293,18 @@
       </c>
       <c r="G118" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H118" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G118,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.341228804524491</v>
+        <v>93.91360754180505</v>
       </c>
       <c r="I118" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G118,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>93.548197427109898</v>
-      </c>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.35">
+        <v>101.43356177863626</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="6"/>
       <c r="F119" s="28">
         <f t="shared" si="3"/>
@@ -6310,18 +6312,18 @@
       </c>
       <c r="G119" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H119" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G119,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>87.443326310028922</v>
+        <v>92.223461817671193</v>
       </c>
       <c r="I119" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G119,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>91.758141927655473</v>
-      </c>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.35">
+        <v>98.819803823659541</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C120" s="6"/>
       <c r="F120" s="28">
         <f t="shared" si="3"/>
@@ -6329,18 +6331,18 @@
       </c>
       <c r="G120" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H120" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G120,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>86.952114642885093</v>
+        <v>91.104134281124914</v>
       </c>
       <c r="I120" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G120,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>90.452741308222386</v>
-      </c>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.35">
+        <v>96.779422077523648</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C121" s="6"/>
       <c r="F121" s="28">
         <f t="shared" si="3"/>
@@ -6348,147 +6350,147 @@
       </c>
       <c r="G121" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H121" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G121,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>86.815194600072729</v>
+        <v>90.312731994889404</v>
       </c>
       <c r="I121" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G121,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>89.485037774032818</v>
-      </c>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.35">
+        <v>95.214392721399562</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F122" s="28">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="G122" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H122" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G122,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>86.995916486152595</v>
+        <v>89.946643133187209</v>
       </c>
       <c r="I122" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G122,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.806710936911287</v>
-      </c>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.35">
+        <v>94.027320397792167</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F123" s="28">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G123" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H123" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G123,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>87.369565688907599</v>
+        <v>89.846478185284781</v>
       </c>
       <c r="I123" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G123,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.415535600028718</v>
-      </c>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.35">
+        <v>93.146698362938508</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F124" s="28">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="G124" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H124" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G124,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>87.967454329706271</v>
+        <v>90.045128214445413</v>
       </c>
       <c r="I124" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G124,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.213657273326874</v>
-      </c>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.35">
+        <v>92.48974557965046</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F125" s="28">
         <f t="shared" si="3"/>
         <v>850</v>
       </c>
       <c r="G125" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H125" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G125,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.720608891785147</v>
+        <v>90.448810064688956</v>
       </c>
       <c r="I125" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G125,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.249149866864357</v>
-      </c>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.35">
+        <v>92.094844690045591</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F126" s="28">
         <f>F125+50</f>
         <v>900</v>
       </c>
       <c r="G126" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H126" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G126,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>89.593314734729319</v>
+        <v>91.008321965563326</v>
       </c>
       <c r="I126" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G126,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.445822832013121</v>
-      </c>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.35">
+        <v>91.910242263428344</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F127" s="28">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
       <c r="G127" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H127" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G127,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>90.580408493650125</v>
+        <v>91.778673422793716</v>
       </c>
       <c r="I127" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G127,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>88.816204897834425</v>
+        <v>91.885625469890087</v>
       </c>
       <c r="K127" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F128" s="28">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="G128" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F128,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="H128" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Hmes_,Pcas_,,G128,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>91.705815274676112</v>
+        <v>92.617707485007671</v>
       </c>
       <c r="I128" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Hmes_,Pcas_,,G128,,Hmes_,Dtub_,Dcas_,Twf_,,,Twf_)</f>
-        <v>89.276338095335021</v>
-      </c>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.35">
+        <v>92.098874249692727</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K138" s="7"/>
     </row>
   </sheetData>

--- a/exercises/ex090.self_flow_well.xlsx
+++ b/exercises/ex090.self_flow_well.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD2E49-72A8-4FE4-9D15-6036A1A50BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E25D756-431F-4FF3-9DFC-55018B299D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4118,7 +4118,6 @@
       <definedName name="IPR_pwf_atma"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="well_encode_string"/>
       <definedName name="well_pwf_plin_atma"/>
     </definedNames>
     <sheetDataSet>
@@ -4717,8 +4716,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4744,7 +4743,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5003,10 +5002,7 @@
       <c r="D23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="31" t="e">
-        <f ca="1">[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
